--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -739,39 +739,39 @@
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.8046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,53 +256,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>deathVerifiedFlag</t>
@@ -978,7 +978,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -997,25 +997,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1066,13 +1066,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1081,12 +1081,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1109,13 +1109,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1154,19 +1154,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1178,7 +1178,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>94</v>
@@ -1196,10 +1196,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>95</v>
@@ -1211,13 +1211,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1268,7 +1268,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1299,25 +1299,25 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1368,13 +1368,13 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
@@ -1383,7 +1383,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1411,13 +1411,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1456,19 +1456,19 @@
         <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1480,7 +1480,7 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -1496,10 +1496,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1573,10 +1573,10 @@
         <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
@@ -1598,10 +1598,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>95</v>
@@ -1676,7 +1676,7 @@
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>111</v>
@@ -1703,7 +1703,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>95</v>
@@ -1772,7 +1772,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1784,7 +1784,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>115</v>
@@ -1805,7 +1805,7 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>95</v>
@@ -1874,7 +1874,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1886,7 +1886,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>119</v>
@@ -1976,7 +1976,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -1988,7 +1988,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -2004,10 +2004,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -2081,10 +2081,10 @@
         <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
@@ -2184,7 +2184,7 @@
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T22:48:36+00:00</t>
+    <t>2022-12-19T23:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -305,16 +308,28 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Extension.extension:deathVerifiedFlag</t>
+  </si>
+  <si>
     <t>deathVerifiedFlag</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
+    <t>Extension.extension:deathVerifiedFlag.id</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
+    <t>Extension.extension:deathVerifiedFlag.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:deathVerifiedFlag.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -339,6 +354,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension:deathVerifiedFlag.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
@@ -359,6 +377,9 @@
 </t>
   </si>
   <si>
+    <t>Extension.extension:businessDates</t>
+  </si>
+  <si>
     <t>businessDates</t>
   </si>
   <si>
@@ -372,6 +393,9 @@
     <t>The effective dates for the parent element.</t>
   </si>
   <si>
+    <t>Extension.extension:sourceID</t>
+  </si>
+  <si>
     <t>sourceID</t>
   </si>
   <si>
@@ -383,6 +407,9 @@
   </si>
   <si>
     <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
+  </si>
+  <si>
+    <t>Extension.extension:deathVerifiedFlagHistory</t>
   </si>
   <si>
     <t>deathVerifiedFlagHistory</t>
@@ -727,7 +754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -736,42 +763,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.8046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.8046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -883,93 +910,96 @@
       <c r="AJ1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
@@ -978,38 +1008,41 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>82</v>
@@ -1017,301 +1050,310 @@
       <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>82</v>
@@ -1319,885 +1361,912 @@
       <c r="L6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>94</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ14">
+  <autoFilter ref="A1:AK14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="134">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -942,7 +946,7 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -1008,7 +1012,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
@@ -1019,10 +1023,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1033,7 +1037,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1045,13 +1049,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1102,13 +1106,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1117,15 +1121,15 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1133,7 +1137,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>78</v>
@@ -1148,13 +1152,13 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1193,19 +1197,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1217,7 +1221,7 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1225,26 +1229,26 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>76</v>
@@ -1253,13 +1257,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1310,7 +1314,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1322,7 +1326,7 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -1330,10 +1334,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1344,7 +1348,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -1356,13 +1360,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1413,13 +1417,13 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
@@ -1428,15 +1432,15 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1459,13 +1463,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1504,19 +1508,19 @@
         <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -1528,7 +1532,7 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -1536,10 +1540,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1547,10 +1551,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -1562,16 +1566,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1579,7 +1583,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1621,13 +1625,13 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
@@ -1636,15 +1640,15 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1652,13 +1656,13 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>76</v>
@@ -1667,13 +1671,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1724,33 +1728,33 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -1760,10 +1764,10 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
@@ -1772,13 +1776,13 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1829,7 +1833,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -1841,7 +1845,7 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -1849,13 +1853,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -1865,10 +1869,10 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
@@ -1877,13 +1881,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1934,7 +1938,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -1946,7 +1950,7 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -1954,13 +1958,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -1973,7 +1977,7 @@
         <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
@@ -1982,13 +1986,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2039,7 +2043,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2051,7 +2055,7 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2059,10 +2063,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2070,10 +2074,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2085,16 +2089,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2144,13 +2148,13 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
@@ -2159,15 +2163,15 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2190,13 +2194,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2247,22 +2251,22 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T21:31:48+00:00</t>
+    <t>2023-06-28T23:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -552,10 +441,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -758,7 +647,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -770,1507 +659,1392 @@
     <col min="1" max="1" width="46.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="23.8046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>75</v>
+      <c r="AJ1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="I8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>110</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK14">
+  <autoFilter ref="A1:AK13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2280,7 +2054,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI13">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -195,10 +199,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.extension:deathVerifiedFlag</t>
@@ -789,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>39</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -811,7 +811,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -823,13 +823,13 @@
         <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -880,13 +880,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -895,15 +895,15 @@
         <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -911,7 +911,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>41</v>
@@ -926,13 +926,13 @@
         <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -971,19 +971,19 @@
         <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>40</v>
@@ -995,7 +995,7 @@
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -1006,7 +1006,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>60</v>
@@ -1016,10 +1016,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>61</v>
@@ -1031,13 +1031,13 @@
         <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1088,7 +1088,7 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>40</v>
@@ -1100,7 +1100,7 @@
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -1122,7 +1122,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>39</v>
@@ -1134,13 +1134,13 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1191,13 +1191,13 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
@@ -1206,7 +1206,7 @@
         <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1237,13 +1237,13 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1282,19 +1282,19 @@
         <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>40</v>
@@ -1306,7 +1306,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1325,10 +1325,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>39</v>
@@ -1402,10 +1402,10 @@
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
@@ -1430,10 +1430,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>61</v>
@@ -1508,7 +1508,7 @@
         <v>40</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>39</v>
@@ -1525,7 +1525,7 @@
         <v>81</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>82</v>
@@ -1538,7 +1538,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>61</v>
@@ -1607,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>40</v>
@@ -1619,7 +1619,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -1630,7 +1630,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>87</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>61</v>
@@ -1712,7 +1712,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>40</v>
@@ -1724,7 +1724,7 @@
         <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -1735,7 +1735,7 @@
         <v>91</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>92</v>
@@ -1817,7 +1817,7 @@
         <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>40</v>
@@ -1829,7 +1829,7 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>39</v>
@@ -1848,10 +1848,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>39</v>
@@ -1925,10 +1925,10 @@
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>39</v>
@@ -2031,7 +2031,7 @@
         <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="134">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T21:08:14+00:00</t>
+    <t>2024-01-19T19:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -647,7 +758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -659,1392 +770,1507 @@
     <col min="1" max="1" width="46.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="23.8046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>39</v>
+      <c r="G1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK13">
+  <autoFilter ref="A1:AK14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2054,7 +2280,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -132,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient.deceased</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-verified-flag-extension.xlsx
+++ b/StructureDefinition-bc-death-verified-flag-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
